--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Efemp1</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Efemp1</t>
-  </si>
-  <si>
-    <t>Egfr</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6881970000000001</v>
+        <v>1.402088</v>
       </c>
       <c r="H2">
-        <v>2.064591</v>
+        <v>4.206264</v>
       </c>
       <c r="I2">
-        <v>0.009662075282701755</v>
+        <v>0.01950016174243769</v>
       </c>
       <c r="J2">
-        <v>0.009662075282701759</v>
+        <v>0.0195001617424377</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>0.4807978228980001</v>
+        <v>2.292899937173333</v>
       </c>
       <c r="R2">
-        <v>4.327180406082</v>
+        <v>20.63609943456</v>
       </c>
       <c r="S2">
-        <v>9.696861392258905E-05</v>
+        <v>0.0005233298019206222</v>
       </c>
       <c r="T2">
-        <v>9.696861392258907E-05</v>
+        <v>0.0005233298019206224</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6881970000000001</v>
+        <v>1.402088</v>
       </c>
       <c r="H3">
-        <v>2.064591</v>
+        <v>4.206264</v>
       </c>
       <c r="I3">
-        <v>0.009662075282701755</v>
+        <v>0.01950016174243769</v>
       </c>
       <c r="J3">
-        <v>0.009662075282701759</v>
+        <v>0.0195001617424377</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>31.599503726309</v>
+        <v>64.37878250066935</v>
       </c>
       <c r="R3">
-        <v>284.395533536781</v>
+        <v>579.4090425060241</v>
       </c>
       <c r="S3">
-        <v>0.006373073943040554</v>
+        <v>0.0146937661551426</v>
       </c>
       <c r="T3">
-        <v>0.006373073943040556</v>
+        <v>0.0146937661551426</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6881970000000001</v>
+        <v>1.402088</v>
       </c>
       <c r="H4">
-        <v>2.064591</v>
+        <v>4.206264</v>
       </c>
       <c r="I4">
-        <v>0.009662075282701755</v>
+        <v>0.01950016174243769</v>
       </c>
       <c r="J4">
-        <v>0.009662075282701759</v>
+        <v>0.0195001617424377</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>0.160395551401</v>
+        <v>1.177703912194666</v>
       </c>
       <c r="R4">
-        <v>1.443559962609</v>
+        <v>10.599335209752</v>
       </c>
       <c r="S4">
-        <v>3.234901149293256E-05</v>
+        <v>0.0002687982781532891</v>
       </c>
       <c r="T4">
-        <v>3.234901149293257E-05</v>
+        <v>0.0002687982781532891</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6881970000000001</v>
+        <v>1.402088</v>
       </c>
       <c r="H5">
-        <v>2.064591</v>
+        <v>4.206264</v>
       </c>
       <c r="I5">
-        <v>0.009662075282701755</v>
+        <v>0.01950016174243769</v>
       </c>
       <c r="J5">
-        <v>0.009662075282701759</v>
+        <v>0.0195001617424377</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>13.617096882721</v>
+        <v>10.64329160327733</v>
       </c>
       <c r="R5">
-        <v>122.553871944489</v>
+        <v>95.789624429496</v>
       </c>
       <c r="S5">
-        <v>0.002746333172659123</v>
+        <v>0.002429217078436111</v>
       </c>
       <c r="T5">
-        <v>0.002746333172659124</v>
+        <v>0.002429217078436112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6881970000000001</v>
+        <v>1.402088</v>
       </c>
       <c r="H6">
-        <v>2.064591</v>
+        <v>4.206264</v>
       </c>
       <c r="I6">
-        <v>0.009662075282701755</v>
+        <v>0.01950016174243769</v>
       </c>
       <c r="J6">
-        <v>0.009662075282701759</v>
+        <v>0.0195001617424377</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>1.74796303025</v>
+        <v>6.702621394216</v>
       </c>
       <c r="R6">
-        <v>15.73166727225</v>
+        <v>60.323592547944</v>
       </c>
       <c r="S6">
-        <v>0.0003525339428735923</v>
+        <v>0.00152980139678848</v>
       </c>
       <c r="T6">
-        <v>0.0003525339428735924</v>
+        <v>0.001529801396788481</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.402088</v>
+      </c>
+      <c r="H7">
+        <v>4.206264</v>
+      </c>
+      <c r="I7">
+        <v>0.01950016174243769</v>
+      </c>
+      <c r="J7">
+        <v>0.0195001617424377</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>0.6881970000000001</v>
-      </c>
-      <c r="H7">
-        <v>2.064591</v>
-      </c>
-      <c r="I7">
-        <v>0.009662075282701755</v>
-      </c>
-      <c r="J7">
-        <v>0.009662075282701759</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N7">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q7">
-        <v>0.301545903096</v>
+        <v>0.242066286936</v>
       </c>
       <c r="R7">
-        <v>2.713913127864</v>
+        <v>2.178596582424</v>
       </c>
       <c r="S7">
-        <v>6.081659871296414E-05</v>
+        <v>5.524903199659379E-05</v>
       </c>
       <c r="T7">
-        <v>6.081659871296416E-05</v>
+        <v>5.52490319965938E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>210.501888</v>
       </c>
       <c r="I8">
-        <v>0.9851273637281444</v>
+        <v>0.97588284118365</v>
       </c>
       <c r="J8">
-        <v>0.9851273637281446</v>
+        <v>0.9758828411836501</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N8">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q8">
-        <v>49.02125867366401</v>
+        <v>114.7478536226133</v>
       </c>
       <c r="R8">
-        <v>441.191328062976</v>
+        <v>1032.73068260352</v>
       </c>
       <c r="S8">
-        <v>0.009886740912581756</v>
+        <v>0.02618996604848317</v>
       </c>
       <c r="T8">
-        <v>0.009886740912581758</v>
+        <v>0.02618996604848317</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>210.501888</v>
       </c>
       <c r="I9">
-        <v>0.9851273637281444</v>
+        <v>0.97588284118365</v>
       </c>
       <c r="J9">
-        <v>0.9851273637281446</v>
+        <v>0.9758828411836501</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
         <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q9">
-        <v>3221.827080642645</v>
+        <v>3221.827080642646</v>
       </c>
       <c r="R9">
         <v>28996.44372578381</v>
       </c>
       <c r="S9">
-        <v>0.6497868572388629</v>
+        <v>0.7353474526297014</v>
       </c>
       <c r="T9">
-        <v>0.649786857238863</v>
+        <v>0.7353474526297014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>210.501888</v>
       </c>
       <c r="I10">
-        <v>0.9851273637281444</v>
+        <v>0.97588284118365</v>
       </c>
       <c r="J10">
-        <v>0.9851273637281446</v>
+        <v>0.9758828411836501</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N10">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q10">
-        <v>16.35363439863467</v>
+        <v>58.93802600644266</v>
       </c>
       <c r="R10">
-        <v>147.182709587712</v>
+        <v>530.4422340579839</v>
       </c>
       <c r="S10">
-        <v>0.003298245509253892</v>
+        <v>0.01345197187870674</v>
       </c>
       <c r="T10">
-        <v>0.003298245509253893</v>
+        <v>0.01345197187870674</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>210.501888</v>
       </c>
       <c r="I11">
-        <v>0.9851273637281444</v>
+        <v>0.97588284118365</v>
       </c>
       <c r="J11">
-        <v>0.9851273637281446</v>
+        <v>0.9758828411836501</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N11">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q11">
-        <v>1388.374066772395</v>
+        <v>532.6420255657814</v>
       </c>
       <c r="R11">
-        <v>12495.36660095155</v>
+        <v>4793.778230092032</v>
       </c>
       <c r="S11">
-        <v>0.2800110617171999</v>
+        <v>0.1215698257105702</v>
       </c>
       <c r="T11">
-        <v>0.2800110617171999</v>
+        <v>0.1215698257105702</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>210.501888</v>
       </c>
       <c r="I12">
-        <v>0.9851273637281444</v>
+        <v>0.97588284118365</v>
       </c>
       <c r="J12">
-        <v>0.9851273637281446</v>
+        <v>0.9758828411836501</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N12">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q12">
-        <v>178.2190845653334</v>
+        <v>335.431741334272</v>
       </c>
       <c r="R12">
-        <v>1603.971761088</v>
+        <v>3018.885672008448</v>
       </c>
       <c r="S12">
-        <v>0.03594371018713892</v>
+        <v>0.07655869491049833</v>
       </c>
       <c r="T12">
-        <v>0.03594371018713893</v>
+        <v>0.07655869491049833</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,40 +1231,40 @@
         <v>210.501888</v>
       </c>
       <c r="I13">
-        <v>0.9851273637281444</v>
+        <v>0.97588284118365</v>
       </c>
       <c r="J13">
-        <v>0.9851273637281446</v>
+        <v>0.9758828411836501</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N13">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q13">
-        <v>30.745063753728</v>
+        <v>12.114173152512</v>
       </c>
       <c r="R13">
-        <v>276.705573783552</v>
+        <v>109.027558372608</v>
       </c>
       <c r="S13">
-        <v>0.006200748163107038</v>
+        <v>0.002764930005690419</v>
       </c>
       <c r="T13">
-        <v>0.006200748163107039</v>
+        <v>0.002764930005690419</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2590446666666666</v>
+        <v>0.3319683333333334</v>
       </c>
       <c r="H14">
-        <v>0.777134</v>
+        <v>0.995905</v>
       </c>
       <c r="I14">
-        <v>0.003636907848938189</v>
+        <v>0.004616997073912244</v>
       </c>
       <c r="J14">
-        <v>0.003636907848938191</v>
+        <v>0.004616997073912245</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N14">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q14">
-        <v>0.180977411652</v>
+        <v>0.5428833073555557</v>
       </c>
       <c r="R14">
-        <v>1.628796704868</v>
+        <v>4.8859497662</v>
       </c>
       <c r="S14">
-        <v>3.650001710368654E-05</v>
+        <v>0.0001239072883636779</v>
       </c>
       <c r="T14">
-        <v>3.650001710368656E-05</v>
+        <v>0.0001239072883636779</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2590446666666666</v>
+        <v>0.3319683333333334</v>
       </c>
       <c r="H15">
-        <v>0.777134</v>
+        <v>0.995905</v>
       </c>
       <c r="I15">
-        <v>0.003636907848938189</v>
+        <v>0.004616997073912244</v>
       </c>
       <c r="J15">
-        <v>0.003636907848938191</v>
+        <v>0.004616997073912245</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
         <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q15">
-        <v>11.89438912057711</v>
+        <v>15.24277871915056</v>
       </c>
       <c r="R15">
-        <v>107.049502085194</v>
+        <v>137.185008472355</v>
       </c>
       <c r="S15">
-        <v>0.002398892781016132</v>
+        <v>0.003479000648256336</v>
       </c>
       <c r="T15">
-        <v>0.002398892781016133</v>
+        <v>0.003479000648256336</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2590446666666666</v>
+        <v>0.3319683333333334</v>
       </c>
       <c r="H16">
-        <v>0.777134</v>
+        <v>0.995905</v>
       </c>
       <c r="I16">
-        <v>0.003636907848938189</v>
+        <v>0.004616997073912244</v>
       </c>
       <c r="J16">
-        <v>0.003636907848938191</v>
+        <v>0.004616997073912245</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N16">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q16">
-        <v>0.06037459062955555</v>
+        <v>0.2788415597961111</v>
       </c>
       <c r="R16">
-        <v>0.5433713156660001</v>
+        <v>2.509574038165</v>
       </c>
       <c r="S16">
-        <v>1.217651181156396E-05</v>
+        <v>6.364259333324095E-05</v>
       </c>
       <c r="T16">
-        <v>1.217651181156396E-05</v>
+        <v>6.364259333324095E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2590446666666666</v>
+        <v>0.3319683333333334</v>
       </c>
       <c r="H17">
-        <v>0.777134</v>
+        <v>0.995905</v>
       </c>
       <c r="I17">
-        <v>0.003636907848938189</v>
+        <v>0.004616997073912244</v>
       </c>
       <c r="J17">
-        <v>0.003636907848938191</v>
+        <v>0.004616997073912245</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N17">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q17">
-        <v>5.125620022976222</v>
+        <v>2.519981466727222</v>
       </c>
       <c r="R17">
-        <v>46.13058020678601</v>
+        <v>22.679833200545</v>
       </c>
       <c r="S17">
-        <v>0.001033749001037627</v>
+        <v>0.0005751587238699036</v>
       </c>
       <c r="T17">
-        <v>0.001033749001037627</v>
+        <v>0.0005751587238699036</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2590446666666666</v>
+        <v>0.3319683333333334</v>
       </c>
       <c r="H18">
-        <v>0.777134</v>
+        <v>0.995905</v>
       </c>
       <c r="I18">
-        <v>0.003636907848938189</v>
+        <v>0.004616997073912244</v>
       </c>
       <c r="J18">
-        <v>0.003636907848938191</v>
+        <v>0.004616997073912245</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N18">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q18">
-        <v>0.6579518662777777</v>
+        <v>1.586960342861667</v>
       </c>
       <c r="R18">
-        <v>5.9215667965</v>
+        <v>14.282643085755</v>
       </c>
       <c r="S18">
-        <v>0.0001326975237037875</v>
+        <v>0.0003622066660743671</v>
       </c>
       <c r="T18">
-        <v>0.0001326975237037875</v>
+        <v>0.0003622066660743672</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,433 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3319683333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.995905</v>
+      </c>
+      <c r="I19">
+        <v>0.004616997073912244</v>
+      </c>
+      <c r="J19">
+        <v>0.004616997073912245</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.2590446666666666</v>
-      </c>
-      <c r="H19">
-        <v>0.777134</v>
-      </c>
-      <c r="I19">
-        <v>0.003636907848938189</v>
-      </c>
-      <c r="J19">
-        <v>0.003636907848938191</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N19">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q19">
-        <v>0.113505083504</v>
+        <v>0.05731333684500001</v>
       </c>
       <c r="R19">
-        <v>1.021545751536</v>
+        <v>0.515820031605</v>
       </c>
       <c r="S19">
-        <v>2.289201426539236E-05</v>
+        <v>1.308115401471894E-05</v>
       </c>
       <c r="T19">
-        <v>2.289201426539237E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.112086</v>
-      </c>
-      <c r="H20">
-        <v>0.336258</v>
-      </c>
-      <c r="I20">
-        <v>0.001573653140215533</v>
-      </c>
-      <c r="J20">
-        <v>0.001573653140215533</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.6986340000000001</v>
-      </c>
-      <c r="N20">
-        <v>2.095902</v>
-      </c>
-      <c r="O20">
-        <v>0.0100360027308206</v>
-      </c>
-      <c r="P20">
-        <v>0.0100360027308206</v>
-      </c>
-      <c r="Q20">
-        <v>0.07830709052400002</v>
-      </c>
-      <c r="R20">
-        <v>0.704763814716</v>
-      </c>
-      <c r="S20">
-        <v>1.57931872125675E-05</v>
-      </c>
-      <c r="T20">
-        <v>1.57931872125675E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.112086</v>
-      </c>
-      <c r="H21">
-        <v>0.336258</v>
-      </c>
-      <c r="I21">
-        <v>0.001573653140215533</v>
-      </c>
-      <c r="J21">
-        <v>0.001573653140215533</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>45.91636366666666</v>
-      </c>
-      <c r="N21">
-        <v>137.749091</v>
-      </c>
-      <c r="O21">
-        <v>0.6595968005393645</v>
-      </c>
-      <c r="P21">
-        <v>0.6595968005393645</v>
-      </c>
-      <c r="Q21">
-        <v>5.146581537942</v>
-      </c>
-      <c r="R21">
-        <v>46.319233841478</v>
-      </c>
-      <c r="S21">
-        <v>0.001037976576444889</v>
-      </c>
-      <c r="T21">
-        <v>0.00103797657644489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.112086</v>
-      </c>
-      <c r="H22">
-        <v>0.336258</v>
-      </c>
-      <c r="I22">
-        <v>0.001573653140215533</v>
-      </c>
-      <c r="J22">
-        <v>0.001573653140215533</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.2330663333333333</v>
-      </c>
-      <c r="N22">
-        <v>0.699199</v>
-      </c>
-      <c r="O22">
-        <v>0.003348039685723394</v>
-      </c>
-      <c r="P22">
-        <v>0.003348039685723394</v>
-      </c>
-      <c r="Q22">
-        <v>0.026123473038</v>
-      </c>
-      <c r="R22">
-        <v>0.235111257342</v>
-      </c>
-      <c r="S22">
-        <v>5.268653165004844E-06</v>
-      </c>
-      <c r="T22">
-        <v>5.268653165004845E-06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.112086</v>
-      </c>
-      <c r="H23">
-        <v>0.336258</v>
-      </c>
-      <c r="I23">
-        <v>0.001573653140215533</v>
-      </c>
-      <c r="J23">
-        <v>0.001573653140215533</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>19.78662633333333</v>
-      </c>
-      <c r="N23">
-        <v>59.35987900000001</v>
-      </c>
-      <c r="O23">
-        <v>0.284238436599221</v>
-      </c>
-      <c r="P23">
-        <v>0.284238436599221</v>
-      </c>
-      <c r="Q23">
-        <v>2.217803799198</v>
-      </c>
-      <c r="R23">
-        <v>19.960234192782</v>
-      </c>
-      <c r="S23">
-        <v>0.0004472927083243177</v>
-      </c>
-      <c r="T23">
-        <v>0.0004472927083243178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.112086</v>
-      </c>
-      <c r="H24">
-        <v>0.336258</v>
-      </c>
-      <c r="I24">
-        <v>0.001573653140215533</v>
-      </c>
-      <c r="J24">
-        <v>0.001573653140215533</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>2.539916666666667</v>
-      </c>
-      <c r="N24">
-        <v>7.61975</v>
-      </c>
-      <c r="O24">
-        <v>0.03648635852638638</v>
-      </c>
-      <c r="P24">
-        <v>0.03648635852638638</v>
-      </c>
-      <c r="Q24">
-        <v>0.2846890995</v>
-      </c>
-      <c r="R24">
-        <v>2.5622018955</v>
-      </c>
-      <c r="S24">
-        <v>5.741687267007771E-05</v>
-      </c>
-      <c r="T24">
-        <v>5.741687267007772E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.112086</v>
-      </c>
-      <c r="H25">
-        <v>0.336258</v>
-      </c>
-      <c r="I25">
-        <v>0.001573653140215533</v>
-      </c>
-      <c r="J25">
-        <v>0.001573653140215533</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.4381679999999999</v>
-      </c>
-      <c r="N25">
-        <v>1.314504</v>
-      </c>
-      <c r="O25">
-        <v>0.006294361918484071</v>
-      </c>
-      <c r="P25">
-        <v>0.006294361918484071</v>
-      </c>
-      <c r="Q25">
-        <v>0.049112498448</v>
-      </c>
-      <c r="R25">
-        <v>0.4420124860319999</v>
-      </c>
-      <c r="S25">
-        <v>9.905142398675522E-06</v>
-      </c>
-      <c r="T25">
-        <v>9.905142398675526E-06</v>
+        <v>1.308115401471894E-05</v>
       </c>
     </row>
   </sheetData>
